--- a/Teams/Bournemouth_stats.xlsx
+++ b/Teams/Bournemouth_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9660,7 +9660,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19-272</t>
+          <t>19-273</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18-154</t>
+          <t>18-155</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25-109</t>
+          <t>25-110</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24-253</t>
+          <t>24-254</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-083</t>
+          <t>20-084</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25-032</t>
+          <t>25-033</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18-088</t>
+          <t>18-089</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>21-199</t>
+          <t>21-200</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20-032</t>
+          <t>20-033</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20-046</t>
+          <t>20-047</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12072,7 +12072,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12572,7 +12572,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13296,7 +13296,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14095,7 +14095,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14197,7 +14197,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14299,7 +14299,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -15013,7 +15013,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -15625,7 +15625,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -15829,7 +15829,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16135,7 +16135,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16237,7 +16237,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -17705,7 +17705,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -18173,7 +18173,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -18485,7 +18485,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18875,7 +18875,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18953,7 +18953,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -19109,7 +19109,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -19265,7 +19265,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -19343,7 +19343,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -19421,7 +19421,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -19833,7 +19833,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19914,7 +19914,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19995,7 +19995,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -20319,7 +20319,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -20400,7 +20400,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -20481,7 +20481,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -20562,7 +20562,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -20643,7 +20643,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20805,7 +20805,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20967,7 +20967,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -21372,7 +21372,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -21534,7 +21534,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -21615,7 +21615,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -21696,7 +21696,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21858,7 +21858,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -22020,7 +22020,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -22454,7 +22454,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22535,7 +22535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22616,7 +22616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -22697,7 +22697,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22778,7 +22778,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22859,7 +22859,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -23021,7 +23021,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -23102,7 +23102,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23426,7 +23426,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23750,7 +23750,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23829,7 +23829,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23991,7 +23991,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -24072,7 +24072,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -24151,7 +24151,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -24394,7 +24394,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -24475,7 +24475,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -24635,7 +24635,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -25092,7 +25092,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -25191,7 +25191,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -25290,7 +25290,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -25389,7 +25389,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25488,7 +25488,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -25587,7 +25587,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -25686,7 +25686,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -25785,7 +25785,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25884,7 +25884,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -26082,7 +26082,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -26379,7 +26379,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -26478,7 +26478,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26577,7 +26577,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -26771,7 +26771,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26965,7 +26965,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -27064,7 +27064,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -27159,7 +27159,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -27357,7 +27357,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -27456,7 +27456,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27555,7 +27555,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21-133</t>
+          <t>21-134</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -28410,7 +28410,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-072</t>
+          <t>25-073</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -28527,7 +28527,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-200</t>
+          <t>22-201</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-045</t>
+          <t>28-046</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -28761,7 +28761,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30-026</t>
+          <t>30-027</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-319</t>
+          <t>25-320</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28995,7 +28995,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-168</t>
+          <t>30-169</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-166</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19-340</t>
+          <t>19-341</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -29346,7 +29346,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25-363</t>
+          <t>25-364</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -29463,7 +29463,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-038</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -29580,7 +29580,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-034</t>
+          <t>26-035</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -29697,7 +29697,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-325</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -29814,7 +29814,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -29931,7 +29931,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -30048,7 +30048,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-069</t>
+          <t>23-070</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -30165,7 +30165,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-306</t>
+          <t>25-307</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -30282,7 +30282,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-219</t>
+          <t>23-220</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21-211</t>
+          <t>21-212</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -30516,7 +30516,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-315</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35-244</t>
+          <t>35-245</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -30750,7 +30750,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-276</t>
+          <t>25-277</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-282</t>
+          <t>28-283</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -30984,7 +30984,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-076</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-219</t>
+          <t>21-220</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -31218,7 +31218,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-197</t>
+          <t>20-198</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -31335,7 +31335,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-014</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -31452,7 +31452,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-254</t>
+          <t>19-255</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -31569,7 +31569,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19-272</t>
+          <t>19-273</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -31632,7 +31632,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18-154</t>
+          <t>18-155</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -31695,7 +31695,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25-109</t>
+          <t>25-110</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -31758,7 +31758,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24-253</t>
+          <t>24-254</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -31821,7 +31821,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-083</t>
+          <t>20-084</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -31884,7 +31884,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25-032</t>
+          <t>25-033</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -31947,7 +31947,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18-088</t>
+          <t>18-089</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>21-199</t>
+          <t>21-200</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -32073,7 +32073,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20-032</t>
+          <t>20-033</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -32136,7 +32136,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20-046</t>
+          <t>20-047</t>
         </is>
       </c>
       <c r="F41" t="n">

--- a/Teams/Bournemouth_stats.xlsx
+++ b/Teams/Bournemouth_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6045,12 +6045,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8842,7 +8842,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19-276</t>
+          <t>19-279</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18-158</t>
+          <t>18-161</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25-113</t>
+          <t>25-116</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>24-257</t>
+          <t>24-260</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-090</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25-036</t>
+          <t>25-039</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18-092</t>
+          <t>18-095</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21-203</t>
+          <t>21-206</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20-036</t>
+          <t>20-039</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20-050</t>
+          <t>20-053</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -9992,10 +9992,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -12037,7 +12037,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12101,7 +12101,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -12517,7 +12517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15618,7 +15618,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16094,7 +16094,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16162,7 +16162,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16570,7 +16570,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16842,7 +16842,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16978,7 +16978,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17114,7 +17114,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17755,7 +17755,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17826,7 +17826,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17897,7 +17897,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18110,7 +18110,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18252,7 +18252,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18465,7 +18465,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18607,7 +18607,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18678,7 +18678,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18749,7 +18749,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18820,7 +18820,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18962,7 +18962,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -19175,7 +19175,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -19246,7 +19246,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19970,7 +19970,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -20041,7 +20041,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -20112,7 +20112,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -20183,7 +20183,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20254,7 +20254,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20325,7 +20325,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20467,7 +20467,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20538,7 +20538,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20609,7 +20609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -21035,7 +21035,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -21175,7 +21175,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21317,7 +21317,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21386,7 +21386,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21528,7 +21528,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -21599,7 +21599,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21670,7 +21670,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21741,7 +21741,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21810,7 +21810,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -22218,7 +22218,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22485,7 +22485,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22663,7 +22663,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22752,7 +22752,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22841,7 +22841,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22930,7 +22930,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -23019,7 +23019,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -23197,7 +23197,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23286,7 +23286,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23553,7 +23553,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23642,7 +23642,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -23727,7 +23727,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23812,7 +23812,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -24075,7 +24075,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -24164,7 +24164,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24253,7 +24253,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -24342,7 +24342,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24431,7 +24431,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24601,7 +24601,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -24871,12 +24871,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-140</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -25207,7 +25207,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-076</t>
+          <t>25-079</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -25314,7 +25314,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-204</t>
+          <t>22-207</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25421,7 +25421,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-049</t>
+          <t>28-052</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25528,7 +25528,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-033</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25635,7 +25635,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-323</t>
+          <t>25-326</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25742,7 +25742,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-172</t>
+          <t>30-175</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25849,7 +25849,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-169</t>
+          <t>25-172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19-344</t>
+          <t>19-347</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -26063,7 +26063,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-005</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -26170,7 +26170,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-041</t>
+          <t>23-044</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -26277,7 +26277,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-038</t>
+          <t>26-041</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -26384,7 +26384,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-329</t>
+          <t>33-332</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -26491,7 +26491,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26598,7 +26598,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-073</t>
+          <t>23-076</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -26812,7 +26812,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-310</t>
+          <t>25-313</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-223</t>
+          <t>23-226</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -27026,7 +27026,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21-215</t>
+          <t>21-218</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27-318</t>
+          <t>27-321</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -27240,7 +27240,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35-248</t>
+          <t>35-251</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -27347,7 +27347,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-280</t>
+          <t>25-283</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -27454,7 +27454,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-286</t>
+          <t>28-289</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -27561,7 +27561,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-082</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -27668,7 +27668,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-223</t>
+          <t>21-226</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -27775,7 +27775,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-201</t>
+          <t>20-204</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -27882,7 +27882,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-018</t>
+          <t>19-021</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -27989,7 +27989,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-258</t>
+          <t>19-261</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19-276</t>
+          <t>19-279</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -28149,7 +28149,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18-158</t>
+          <t>18-161</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -28202,7 +28202,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25-113</t>
+          <t>25-116</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>24-257</t>
+          <t>24-260</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -28308,7 +28308,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-090</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -28361,7 +28361,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25-036</t>
+          <t>25-039</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -28414,7 +28414,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18-092</t>
+          <t>18-095</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -28467,7 +28467,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21-203</t>
+          <t>21-206</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -28520,7 +28520,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20-036</t>
+          <t>20-039</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -28573,7 +28573,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20-050</t>
+          <t>20-053</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -28818,10 +28818,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
